--- a/HS402/V3.0_Wifi_Beta/HS402_Component_List_V3.0.xlsx
+++ b/HS402/V3.0_Wifi_Beta/HS402_Component_List_V3.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="HS402" sheetId="1" r:id="rId1"/>
@@ -209,7 +209,7 @@
     <t>SOT223-6</t>
   </si>
   <si>
-    <t>Option 2</t>
+    <t>Option 2 (lower noise)</t>
   </si>
   <si>
     <t>K1, K2</t>
@@ -405,10 +405,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -457,22 +457,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -481,61 +465,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,7 +479,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,9 +502,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -586,9 +539,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,6 +568,38 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -634,7 +634,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,13 +712,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,7 +724,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,115 +790,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,25 +814,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,6 +880,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -921,11 +936,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,30 +948,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,6 +966,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -985,10 +985,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,133 +997,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2606,8 +2606,8 @@
   </sheetPr>
   <dimension ref="B2:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -3291,7 +3291,7 @@
   </sheetPr>
   <dimension ref="B1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/HS402/V3.0_Wifi_Beta/HS402_Component_List_V3.0.xlsx
+++ b/HS402/V3.0_Wifi_Beta/HS402_Component_List_V3.0.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowHeight="17940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HS402" sheetId="1" r:id="rId1"/>
-    <sheet name="Wifi Module" sheetId="2" r:id="rId2"/>
+    <sheet name="Wifi Module (PCB)" sheetId="2" r:id="rId2"/>
+    <sheet name="Wifi Module (no PCB)" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'HS402'!$5:$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'HS402'!$A:$H</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Wifi Module'!$A:$I</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Wifi Module (PCB)'!$A:$I</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Wifi Module (no PCB)'!$A:$G</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="133">
   <si>
     <t>HS402 DIY Oscilloscope
 Components List</t>
@@ -341,7 +343,7 @@
     <t>SOT-23</t>
   </si>
   <si>
-    <t>WIFI Module
+    <t>WIFI Module (PCB Built)
 Components List</t>
   </si>
   <si>
@@ -398,6 +400,34 @@
   </si>
   <si>
     <t>Option 2 (to use when power directly with 3.7 Lithium battery)</t>
+  </si>
+  <si>
+    <t>WIFI Module (no PCB)
+Components List</t>
+  </si>
+  <si>
+    <t>HS402 PCB Ver:</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>The Wifi module can be implemented easily without the custom PC just by using this ESP32 Development Board.</t>
+  </si>
+  <si>
+    <t>ESP32 Development Board 30-pins</t>
+  </si>
+  <si>
+    <t>Based of ESP32 WROOM 32D (dual core)</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>RGB LED Module</t>
+  </si>
+  <si>
+    <t>Optional, it could be common catode or anode</t>
   </si>
 </sst>
 </file>
@@ -405,9 +435,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -458,13 +488,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -478,6 +501,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -485,9 +531,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,15 +553,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,16 +593,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,40 +616,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,13 +640,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,7 +664,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,7 +700,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,19 +724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,13 +742,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,49 +772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,25 +784,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,13 +814,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,7 +838,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,6 +910,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -910,15 +969,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -943,15 +993,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -966,17 +1007,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -985,10 +1015,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,137 +1027,137 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1140,22 +1170,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1167,7 +1215,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1194,7 +1242,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1208,6 +1256,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2344,6 +2395,95 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2670810</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2286000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4121150" y="1755775"/>
+          <a:ext cx="2585085" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>610870</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2049780</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1527175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4646295" y="4108450"/>
+          <a:ext cx="1438910" cy="1460500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -2606,19 +2746,19 @@
   </sheetPr>
   <dimension ref="B2:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="14.8833333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.3833333333333" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.6333333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.8833333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.8833333333333" style="6" customWidth="1"/>
-    <col min="7" max="7" width="30.6666666666667" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.8833333333333" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.3833333333333" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.6333333333333" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21.8833333333333" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.8833333333333" style="9" customWidth="1"/>
+    <col min="7" max="7" width="30.6666666666667" style="9" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2637,630 +2777,630 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" ht="7" customHeight="1"/>
     <row r="5" s="1" customFormat="1" ht="26" customHeight="1" spans="2:8">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:8">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="11">
         <v>3</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" ht="14.25" spans="2:8">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="11">
         <v>2</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" ht="14.25" spans="2:8">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" ht="69" customHeight="1" spans="2:8">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="18">
         <v>1</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" ht="61" customHeight="1" spans="2:8">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="11">
         <v>2</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" ht="28.5" spans="2:8">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="11">
         <v>2</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" ht="14.25" spans="2:8">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="11">
         <v>2</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" ht="14.25" spans="2:8">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="18">
         <v>1</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" ht="14.25" spans="2:8">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="18">
         <v>1</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" ht="14.25" spans="2:8">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="11">
         <v>1</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" ht="14.25" spans="2:8">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="11">
         <v>2</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" ht="63" customHeight="1" spans="2:8">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="11">
         <v>2</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" ht="90" customHeight="1" spans="2:8">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="11">
         <v>2</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" ht="60" customHeight="1" spans="2:8">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="18">
         <v>1</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" ht="54" customHeight="1" spans="2:8">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="20">
         <v>1</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" customFormat="1" ht="60" customHeight="1" spans="2:8">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="21">
         <v>1</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="12"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" ht="67" customHeight="1" spans="2:8">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="11">
         <v>2</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="2:8">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="11">
         <v>1</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" ht="72" customHeight="1" spans="2:8">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="11">
         <v>2</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" ht="14.25" spans="2:8">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="11">
         <v>1</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" ht="14.25" spans="2:8">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="11">
         <v>1</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="12"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" customFormat="1" ht="14.25" spans="2:8">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="11">
         <v>1</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" ht="14.25" spans="2:8">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="11">
         <v>1</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H28" s="12"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" ht="14.25" spans="2:8">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="11">
         <v>1</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" ht="14.25" spans="2:8">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="11">
         <v>1</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" ht="14.25" spans="2:8">
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23"/>
     </row>
     <row r="33" ht="14.25" spans="2:7">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" customFormat="1" ht="14.25" spans="2:7">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" customFormat="1" ht="14.25" spans="2:7">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" ht="14.25" spans="2:7">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="39" spans="7:7">
       <c r="G39"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
     </row>
     <row r="75" spans="7:7">
       <c r="G75"/>
@@ -3292,7 +3432,7 @@
   <dimension ref="B1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3322,229 +3462,229 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" ht="7" customHeight="1" spans="2:7">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="26" customHeight="1" spans="2:8">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:8">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="11">
         <v>3</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" ht="28.5" spans="2:8">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="11">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" ht="14.25" spans="2:8">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="11">
         <v>3</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" ht="14.25" spans="2:8">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" ht="14.25" spans="2:8">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="11">
         <v>2</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" ht="68" customHeight="1" spans="2:8">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" ht="115" customHeight="1" spans="2:8">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="11">
         <v>1</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" ht="118" customHeight="1" spans="2:8">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="20">
         <v>1</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" customFormat="1" ht="60" customHeight="1" spans="2:8">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="21">
         <v>1</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3556,4 +3696,121 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="13.9416666666667" customWidth="1"/>
+    <col min="5" max="5" width="14.5166666666667" customWidth="1"/>
+    <col min="6" max="6" width="36.375" customWidth="1"/>
+    <col min="7" max="7" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="49" customHeight="1" spans="2:6">
+      <c r="B1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" ht="17.25" spans="2:5">
+      <c r="B2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" customFormat="1" ht="33" customHeight="1" spans="2:6">
+      <c r="B3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" ht="7" customHeight="1" spans="2:5">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="26" customHeight="1" spans="2:6">
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="186" customHeight="1" spans="2:6">
+      <c r="B6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" ht="129" customHeight="1" spans="2:6">
+      <c r="B7" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/HS402/V3.0_Wifi_Beta/HS402_Component_List_V3.0.xlsx
+++ b/HS402/V3.0_Wifi_Beta/HS402_Component_List_V3.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="2"/>
+    <workbookView windowWidth="22245" windowHeight="12060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HS402" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="143">
   <si>
     <t>HS402 DIY Oscilloscope
 Components List</t>
@@ -378,6 +378,18 @@
 (or 3x4mm)</t>
   </si>
   <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>RGB LED 3528</t>
+  </si>
+  <si>
+    <t>Common anode</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
     <t>U10</t>
   </si>
   <si>
@@ -400,6 +412,27 @@
   </si>
   <si>
     <t>Option 2 (to use when power directly with 3.7 Lithium battery)</t>
+  </si>
+  <si>
+    <t>WIFI</t>
+  </si>
+  <si>
+    <t>Header 9</t>
+  </si>
+  <si>
+    <t>Header, 9-Pin</t>
+  </si>
+  <si>
+    <t>HDR1X9</t>
+  </si>
+  <si>
+    <t>Main connector</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Serial connector (for flashing)</t>
   </si>
   <si>
     <t>WIFI Module (no PCB)
@@ -419,9 +452,6 @@
   </si>
   <si>
     <t>Based of ESP32 WROOM 32D (dual core)</t>
-  </si>
-  <si>
-    <t>LED</t>
   </si>
   <si>
     <t>RGB LED Module</t>
@@ -435,9 +465,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -488,14 +518,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,29 +548,46 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,34 +601,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -601,24 +632,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,13 +694,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,7 +772,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,67 +790,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,49 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,7 +838,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,13 +862,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,29 +942,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,17 +964,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,6 +986,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,10 +1045,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1027,133 +1057,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2121,13 +2151,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>56515</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1082675</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1450975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2145,7 +2175,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6864350" y="3260090"/>
+          <a:off x="6864350" y="4123690"/>
           <a:ext cx="1026160" cy="1400810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2163,13 +2193,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>46990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1105535</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>637540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2188,7 +2218,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6884035" y="4717415"/>
+          <a:off x="6884035" y="5581015"/>
           <a:ext cx="1029335" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2202,13 +2232,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>46990</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1111885</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>724535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2227,7 +2257,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6854825" y="6189980"/>
+          <a:off x="6854825" y="7053580"/>
           <a:ext cx="1064895" cy="703580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2241,13 +2271,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>81280</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>682625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1030605</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1443990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2265,7 +2295,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6889115" y="5353050"/>
+          <a:off x="6889115" y="6216650"/>
           <a:ext cx="949325" cy="761365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2279,13 +2309,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>422910</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>13335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>681990</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2304,7 +2334,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5113655" y="7287260"/>
+          <a:off x="5113655" y="8693785"/>
           <a:ext cx="2376170" cy="1137285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2318,13 +2348,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>70485</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>266065</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2343,7 +2373,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5772150" y="8698865"/>
+          <a:off x="5772150" y="10105390"/>
           <a:ext cx="1301750" cy="1073785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2357,13 +2387,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>161290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>38735</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2382,12 +2412,54 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342900" y="7263765"/>
+          <a:off x="342900" y="8670290"/>
           <a:ext cx="3427730" cy="3134995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1257935</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>715645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6884035" y="3349625"/>
+          <a:ext cx="1181735" cy="575945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2746,8 +2818,8 @@
   </sheetPr>
   <dimension ref="B2:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A27" sqref="$A27:$XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -3429,10 +3501,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H13"/>
+  <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3443,7 +3515,8 @@
     <col min="4" max="4" width="13.9416666666667" customWidth="1"/>
     <col min="5" max="5" width="13.7416666666667" customWidth="1"/>
     <col min="6" max="6" width="13.2666666666667" customWidth="1"/>
-    <col min="7" max="8" width="14.5166666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.5166666666667" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3623,68 +3696,129 @@
       <c r="G10" s="11"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" ht="115" customHeight="1" spans="2:8">
-      <c r="B11" s="29" t="s">
+    <row r="11" customFormat="1" ht="68" customHeight="1" spans="2:8">
+      <c r="B11" s="11" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="11" t="s">
         <v>117</v>
       </c>
       <c r="E11" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" ht="115" customHeight="1" spans="2:8">
+      <c r="B12" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F12" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" ht="118" customHeight="1" spans="2:8">
-      <c r="B12" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="20">
+      <c r="G12" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" ht="118" customHeight="1" spans="2:8">
+      <c r="B13" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="20">
         <v>1</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D13" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E13" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" customFormat="1" ht="60" customHeight="1" spans="2:8">
-      <c r="B13" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="21">
+      <c r="F13" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" customFormat="1" ht="60" customHeight="1" spans="2:8">
+      <c r="B14" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="21">
         <v>1</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D14" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F14" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="18"/>
+      <c r="G14" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" customFormat="1" ht="28.5" spans="2:8">
+      <c r="B16" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3705,7 +3839,7 @@
   </sheetPr>
   <dimension ref="B1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3722,7 +3856,7 @@
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="2:6">
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3731,7 +3865,7 @@
     </row>
     <row r="2" ht="17.25" spans="2:5">
       <c r="B2" s="3" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>2</v>
@@ -3741,10 +3875,10 @@
     </row>
     <row r="3" customFormat="1" ht="33" customHeight="1" spans="2:6">
       <c r="B3" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -3781,25 +3915,25 @@
         <v>1</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F6" s="12"/>
     </row>
     <row r="7" ht="129" customHeight="1" spans="2:6">
       <c r="B7" s="11" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C7" s="11">
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F7" s="13"/>
     </row>

--- a/HS402/V3.0_Wifi_Beta/HS402_Component_List_V3.0.xlsx
+++ b/HS402/V3.0_Wifi_Beta/HS402_Component_List_V3.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22245" windowHeight="12060" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HS402" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="145">
   <si>
     <t>HS402 DIY Oscilloscope
 Components List</t>
@@ -353,13 +353,19 @@
     <t>5.1K</t>
   </si>
   <si>
-    <t>R13, R14, R15, R16, R17</t>
+    <t>R13, R14</t>
   </si>
   <si>
     <t>20K</t>
   </si>
   <si>
+    <t>R15, R16, R17</t>
+  </si>
+  <si>
     <t>C20, C21, C22</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
   <si>
     <t>C23</t>
@@ -465,10 +471,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -517,6 +523,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -524,11 +553,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -539,55 +567,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,23 +584,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,9 +592,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -647,8 +637,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,6 +655,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,13 +700,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,49 +820,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,25 +844,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,73 +880,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,33 +950,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,6 +979,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1010,15 +1025,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,10 +1051,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1057,137 +1063,137 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1236,16 +1242,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2070,15 +2079,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
+      <xdr:colOff>384175</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>832485</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>83185</xdr:rowOff>
+      <xdr:colOff>880110</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>54610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2095,7 +2104,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7144385" y="1571625"/>
+          <a:off x="7192010" y="1543050"/>
           <a:ext cx="495935" cy="495935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2109,13 +2118,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>77470</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>117475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1034415</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>773430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2151,13 +2160,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>56515</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1082675</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1450975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2193,13 +2202,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>46990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1105535</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>637540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2232,13 +2241,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>46990</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1111885</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>724535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2271,13 +2280,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>81280</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>682625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1030605</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1443990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2307,16 +2316,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>422910</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>13335</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>184785</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>681990</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2334,7 +2343,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5113655" y="8693785"/>
+          <a:off x="3828415" y="9303385"/>
           <a:ext cx="2376170" cy="1137285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2347,15 +2356,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>70485</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>788035</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>266065</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:colOff>1189990</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2373,8 +2382,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5772150" y="10105390"/>
-          <a:ext cx="1301750" cy="1073785"/>
+          <a:off x="6489700" y="8877300"/>
+          <a:ext cx="1508125" cy="1244600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2386,15 +2395,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161290</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>113665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38735</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>163830</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2412,8 +2421,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342900" y="8670290"/>
-          <a:ext cx="3427730" cy="3134995"/>
+          <a:off x="323850" y="8622665"/>
+          <a:ext cx="2421255" cy="2211705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2426,13 +2435,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1257935</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>715645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2460,6 +2469,44 @@
         <a:ln w="9525">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>313690</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="44b116e039bd9c0dc962d2ed6e"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="212090" y="11071225"/>
+          <a:ext cx="4792345" cy="3838575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2849,7 +2896,7 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -2884,364 +2931,364 @@
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:8">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="11">
         <v>3</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="15"/>
     </row>
     <row r="7" ht="14.25" spans="2:8">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="11">
         <v>2</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" ht="14.25" spans="2:8">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" ht="69" customHeight="1" spans="2:8">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="20">
         <v>1</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" ht="61" customHeight="1" spans="2:8">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="30" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="11">
         <v>2</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" ht="28.5" spans="2:8">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="11">
         <v>2</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="30" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="15"/>
     </row>
     <row r="12" ht="14.25" spans="2:8">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="11">
         <v>2</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" ht="14.25" spans="2:8">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="20">
         <v>1</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" ht="14.25" spans="2:8">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="20">
         <v>1</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" ht="14.25" spans="2:8">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="30" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="11">
         <v>1</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" ht="14.25" spans="2:8">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="30" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="11">
         <v>2</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" ht="63" customHeight="1" spans="2:8">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="30" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="11">
         <v>2</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="30" t="s">
         <v>44</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="30" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="11"/>
-      <c r="H17" s="18"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" ht="90" customHeight="1" spans="2:8">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="30" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="11">
         <v>2</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="30" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="18"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" ht="60" customHeight="1" spans="2:8">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="20">
         <v>1</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" ht="54" customHeight="1" spans="2:8">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="21">
         <v>1</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="18"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" customFormat="1" ht="60" customHeight="1" spans="2:8">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="22">
         <v>1</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="18"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" ht="67" customHeight="1" spans="2:8">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="30" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="11">
         <v>2</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="18"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="2:8">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="30" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="11">
         <v>1</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="30" t="s">
         <v>68</v>
       </c>
       <c r="E23" s="11" t="s">
@@ -3253,70 +3300,70 @@
       <c r="G23" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="18"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" ht="72" customHeight="1" spans="2:8">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="30" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="11">
         <v>2</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="18"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" ht="14.25" spans="2:8">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="30" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="11">
         <v>1</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="H25" s="18"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" ht="14.25" spans="2:8">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="30" t="s">
         <v>80</v>
       </c>
       <c r="C26" s="11">
         <v>1</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="18"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" customFormat="1" ht="14.25" spans="2:8">
       <c r="B27" s="11" t="s">
@@ -3325,40 +3372,40 @@
       <c r="C27" s="11">
         <v>1</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="30" t="s">
         <v>87</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="18"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" ht="14.25" spans="2:8">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="30" t="s">
         <v>89</v>
       </c>
       <c r="C28" s="11">
         <v>1</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="30" t="s">
         <v>87</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H28" s="18"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" ht="14.25" spans="2:8">
       <c r="B29" s="11" t="s">
@@ -3367,19 +3414,19 @@
       <c r="C29" s="11">
         <v>1</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="30" t="s">
         <v>87</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H29" s="18"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" ht="14.25" spans="2:8">
       <c r="B30" s="11" t="s">
@@ -3388,91 +3435,91 @@
       <c r="C30" s="11">
         <v>1</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="30" t="s">
         <v>97</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H30" s="18"/>
+      <c r="H30" s="20"/>
     </row>
     <row r="31" ht="14.25" spans="2:8">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="33" ht="14.25" spans="2:7">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" customFormat="1" ht="14.25" spans="2:7">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" customFormat="1" ht="14.25" spans="2:7">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
     </row>
     <row r="36" ht="14.25" spans="2:7">
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
     </row>
     <row r="39" spans="7:7">
       <c r="G39"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
     </row>
     <row r="75" spans="7:7">
       <c r="G75"/>
@@ -3501,10 +3548,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H16"/>
+  <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3535,7 +3582,7 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -3577,256 +3624,277 @@
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:8">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>106</v>
       </c>
       <c r="C5" s="11">
         <v>3</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" ht="28.5" spans="2:8">
-      <c r="B6" s="29" t="s">
+    <row r="6" ht="14.25" spans="2:8">
+      <c r="B6" s="30" t="s">
         <v>108</v>
       </c>
       <c r="C6" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" ht="14.25" spans="2:8">
-      <c r="B7" s="29" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B7" s="30" t="s">
         <v>110</v>
       </c>
       <c r="C7" s="11">
         <v>3</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" ht="14.25" spans="2:8">
+      <c r="B8" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="11">
+        <v>3</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" ht="14.25" spans="2:8">
-      <c r="B8" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="G8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:8">
+      <c r="B9" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D9" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:8">
-      <c r="B9" s="29" t="s">
+      <c r="G9" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" ht="14.25" spans="2:8">
+      <c r="B10" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C10" s="11">
         <v>2</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F10" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" ht="68" customHeight="1" spans="2:8">
-      <c r="B10" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" ht="68" customHeight="1" spans="2:8">
+      <c r="B11" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" customFormat="1" ht="68" customHeight="1" spans="2:8">
-      <c r="B11" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" customFormat="1" ht="68" customHeight="1" spans="2:8">
+      <c r="B12" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" ht="115" customHeight="1" spans="2:8">
-      <c r="B12" s="29" t="s">
-        <v>120</v>
       </c>
       <c r="C12" s="11">
         <v>1</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" ht="115" customHeight="1" spans="2:8">
+      <c r="B13" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" ht="118" customHeight="1" spans="2:8">
-      <c r="B13" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="20">
-        <v>1</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" ht="118" customHeight="1" spans="2:8">
+      <c r="B14" s="32" t="s">
         <v>125</v>
-      </c>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" customFormat="1" ht="60" customHeight="1" spans="2:8">
-      <c r="B14" s="32" t="s">
-        <v>126</v>
       </c>
       <c r="C14" s="21">
         <v>1</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="G14" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" customFormat="1" ht="14.25" spans="2:8">
-      <c r="B15" s="11" t="s">
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" customFormat="1" ht="60" customHeight="1" spans="2:8">
+      <c r="B15" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="22">
         <v>1</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B16" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" customFormat="1" ht="28.5" spans="2:8">
-      <c r="B16" s="11" t="s">
-        <v>133</v>
       </c>
       <c r="C16" s="11">
         <v>1</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>87</v>
+      <c r="D16" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="18"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" customFormat="1" ht="28.5" spans="2:8">
+      <c r="B17" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="H5:H10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3856,7 +3924,7 @@
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="2:6">
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3865,9 +3933,9 @@
     </row>
     <row r="2" ht="17.25" spans="2:5">
       <c r="B2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="5"/>
@@ -3875,10 +3943,10 @@
     </row>
     <row r="3" customFormat="1" ht="33" customHeight="1" spans="2:6">
       <c r="B3" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -3914,26 +3982,26 @@
       <c r="C6" s="11">
         <v>1</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>139</v>
+      <c r="D6" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F6" s="12"/>
     </row>
     <row r="7" ht="129" customHeight="1" spans="2:6">
       <c r="B7" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C7" s="11">
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F7" s="13"/>
     </row>

--- a/HS402/V3.0_Wifi_Beta/HS402_Component_List_V3.0.xlsx
+++ b/HS402/V3.0_Wifi_Beta/HS402_Component_List_V3.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="HS402" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="151">
   <si>
     <t>HS402 DIY Oscilloscope
 Components List</t>
@@ -67,7 +67,7 @@
     <t>Resistor</t>
   </si>
   <si>
-    <t>C0805</t>
+    <t>0805</t>
   </si>
   <si>
     <t/>
@@ -148,7 +148,7 @@
     <t>470nF</t>
   </si>
   <si>
-    <t>C10, C11</t>
+    <t>C11</t>
   </si>
   <si>
     <t>10uF</t>
@@ -199,7 +199,8 @@
     <t>AMS1117-3.3</t>
   </si>
   <si>
-    <t>Option 1</t>
+    <t>Option 2
+(indipendent 3V3)</t>
   </si>
   <si>
     <t>U6</t>
@@ -211,7 +212,23 @@
     <t>SOT223-6</t>
   </si>
   <si>
-    <t>Option 2 (lower noise)</t>
+    <t>Option 3
+(indipendent 3V3, lower noise)</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>1uH</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>Option 3 TBC</t>
+  </si>
+  <si>
+    <t>C10</t>
   </si>
   <si>
     <t>K1, K2</t>
@@ -368,7 +385,10 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>C23</t>
+    <t>C23, C24</t>
+  </si>
+  <si>
+    <t>L10</t>
   </si>
   <si>
     <t>S1</t>
@@ -471,10 +491,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -523,6 +543,87 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -539,60 +640,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,24 +664,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,28 +682,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,6 +720,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -712,7 +750,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,19 +774,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,25 +804,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,13 +822,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,67 +852,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,6 +871,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,11 +966,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,6 +1005,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -981,35 +1031,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,21 +1063,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1051,10 +1071,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1063,137 +1083,137 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1252,9 +1272,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1366,13 +1383,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>635</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1265555</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1391,7 +1408,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="13592175"/>
+          <a:off x="635" y="14150975"/>
           <a:ext cx="4743450" cy="1428750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1405,13 +1422,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1428,7 +1445,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6356350" y="13811250"/>
+          <a:off x="6356350" y="14370050"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1446,13 +1463,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>265430</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1471,7 +1488,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5012055" y="13554075"/>
+          <a:off x="5012055" y="14112875"/>
           <a:ext cx="1609725" cy="1581150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1485,14 +1502,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>8890</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>164465</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>202565</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1509,7 +1526,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="219075" y="16125190"/>
+          <a:off x="219075" y="16512540"/>
           <a:ext cx="2464435" cy="3089275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1682,13 +1699,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>809625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1707,7 +1724,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8796020" y="9144635"/>
+          <a:off x="8796020" y="9703435"/>
           <a:ext cx="1008380" cy="748665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1721,13 +1738,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1826260</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>59690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1745,7 +1762,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6994525" y="13573125"/>
+          <a:off x="6994525" y="14131925"/>
           <a:ext cx="1188085" cy="1974215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1797,13 +1814,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1129030</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>854710</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1821,7 +1838,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8721725" y="10309225"/>
+          <a:off x="8721725" y="10868025"/>
           <a:ext cx="1100455" cy="822960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1917,16 +1934,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1638935</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>21590</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>50165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>638810</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>75565</xdr:rowOff>
+      <xdr:colOff>667385</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1943,7 +1960,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5117465" y="16137890"/>
+          <a:off x="5146040" y="16515715"/>
           <a:ext cx="4214495" cy="2987675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1997,16 +2014,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>503555</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>151130</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2023,7 +2040,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="19783425"/>
+          <a:off x="1362710" y="19865975"/>
           <a:ext cx="2266950" cy="2882265"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2071,6 +2088,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>832485</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>207010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15" descr="R6315364-01"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029700" y="9131300"/>
+          <a:ext cx="495935" cy="438785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2079,15 +2134,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>384175</xdr:colOff>
+      <xdr:colOff>250825</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>880110</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>54610</xdr:rowOff>
+      <xdr:colOff>1089660</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2104,8 +2159,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7192010" y="1543050"/>
-          <a:ext cx="495935" cy="495935"/>
+          <a:off x="7058660" y="1476375"/>
+          <a:ext cx="838835" cy="838835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2118,13 +2173,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>77470</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>117475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1034415</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>773430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2142,7 +2197,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6885305" y="2463800"/>
+          <a:off x="6885305" y="2644775"/>
           <a:ext cx="956945" cy="655955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2160,13 +2215,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>56515</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1082675</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1450975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2184,7 +2239,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6864350" y="4123690"/>
+          <a:off x="6864350" y="4304665"/>
           <a:ext cx="1026160" cy="1400810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2202,13 +2257,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>46990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1105535</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>637540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2227,7 +2282,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6884035" y="5581015"/>
+          <a:off x="6884035" y="5761990"/>
           <a:ext cx="1029335" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2241,13 +2296,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>46990</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1111885</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>724535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2266,7 +2321,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6854825" y="7053580"/>
+          <a:off x="6854825" y="7234555"/>
           <a:ext cx="1064895" cy="703580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2280,13 +2335,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>81280</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>682625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1030605</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1443990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2304,7 +2359,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6889115" y="6216650"/>
+          <a:off x="6889115" y="6397625"/>
           <a:ext cx="949325" cy="761365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2318,13 +2373,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>184785</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>108585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2343,7 +2398,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3828415" y="9303385"/>
+          <a:off x="3828415" y="9484360"/>
           <a:ext cx="2376170" cy="1137285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2357,13 +2412,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>788035</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1189990</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2382,7 +2437,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6489700" y="8877300"/>
+          <a:off x="6489700" y="9058275"/>
           <a:ext cx="1508125" cy="1244600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2396,13 +2451,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>113665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>163830</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>96520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2421,7 +2476,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="8622665"/>
+          <a:off x="323850" y="8803640"/>
           <a:ext cx="2421255" cy="2211705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2435,13 +2490,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1257935</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>715645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2459,7 +2514,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6884035" y="3349625"/>
+          <a:off x="6884035" y="3530600"/>
           <a:ext cx="1181735" cy="575945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2477,13 +2532,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>69215</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>313690</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2501,7 +2556,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="212090" y="11071225"/>
+          <a:off x="212090" y="11252200"/>
           <a:ext cx="4792345" cy="3838575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2863,10 +2918,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:H75"/>
+  <dimension ref="B2:H76"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A27" sqref="$A27:$XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -2896,7 +2951,7 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -2931,164 +2986,164 @@
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:8">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="11">
         <v>3</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="15"/>
     </row>
     <row r="7" ht="14.25" spans="2:8">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="11">
         <v>2</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="17"/>
     </row>
     <row r="8" ht="14.25" spans="2:8">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="19"/>
     </row>
     <row r="9" ht="69" customHeight="1" spans="2:8">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="16">
         <v>1</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" ht="61" customHeight="1" spans="2:8">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="11">
         <v>2</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" ht="28.5" spans="2:8">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="11">
         <v>2</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="29" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="15"/>
     </row>
     <row r="12" ht="14.25" spans="2:8">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="11">
         <v>2</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="17"/>
     </row>
     <row r="13" ht="14.25" spans="2:8">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="16">
         <v>1</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="18" t="s">
@@ -3097,61 +3152,57 @@
       <c r="H13" s="17"/>
     </row>
     <row r="14" ht="14.25" spans="2:8">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="16">
         <v>1</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="G14" s="16"/>
       <c r="H14" s="17"/>
     </row>
     <row r="15" ht="14.25" spans="2:8">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="11">
         <v>1</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="G15" s="16"/>
       <c r="H15" s="17"/>
     </row>
     <row r="16" ht="14.25" spans="2:8">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="11">
-        <v>2</v>
-      </c>
-      <c r="D16" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="18" t="s">
@@ -3160,380 +3211,423 @@
       <c r="H16" s="19"/>
     </row>
     <row r="17" ht="63" customHeight="1" spans="2:8">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="11">
         <v>2</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="29" t="s">
         <v>44</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="29" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="11"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" ht="90" customHeight="1" spans="2:8">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="11">
         <v>2</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="29" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" ht="60" customHeight="1" spans="2:8">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="16">
         <v>1</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" ht="54" customHeight="1" spans="2:8">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>1</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="20"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" customFormat="1" ht="60" customHeight="1" spans="2:8">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>1</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="20"/>
-    </row>
-    <row r="22" ht="67" customHeight="1" spans="2:8">
-      <c r="B22" s="30" t="s">
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" customFormat="1" ht="22" customHeight="1" spans="2:8">
+      <c r="B22" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="11">
-        <v>2</v>
-      </c>
-      <c r="D22" s="30" t="s">
+      <c r="C22" s="21">
+        <v>1</v>
+      </c>
+      <c r="D22" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="20"/>
-    </row>
-    <row r="23" ht="27" customHeight="1" spans="2:8">
-      <c r="B23" s="30" t="s">
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" customFormat="1" ht="22" customHeight="1" spans="2:8">
+      <c r="B23" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="21">
         <v>1</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" ht="67" customHeight="1" spans="2:8">
+      <c r="B24" s="29" t="s">
         <v>68</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="20"/>
-    </row>
-    <row r="24" ht="72" customHeight="1" spans="2:8">
-      <c r="B24" s="30" t="s">
-        <v>72</v>
       </c>
       <c r="C24" s="11">
         <v>2</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="30" t="s">
+      <c r="D24" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="20"/>
-    </row>
-    <row r="25" ht="14.25" spans="2:8">
-      <c r="B25" s="30" t="s">
-        <v>75</v>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" ht="27" customHeight="1" spans="2:8">
+      <c r="B25" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="C25" s="11">
         <v>1</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" ht="72" customHeight="1" spans="2:8">
+      <c r="B26" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="C26" s="11">
+        <v>2</v>
+      </c>
+      <c r="D26" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="E26" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="H25" s="20"/>
-    </row>
-    <row r="26" ht="14.25" spans="2:8">
-      <c r="B26" s="30" t="s">
+      <c r="F26" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" ht="14.25" spans="2:8">
+      <c r="B27" s="29" t="s">
         <v>80</v>
-      </c>
-      <c r="C26" s="11">
-        <v>1</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" customFormat="1" ht="14.25" spans="2:8">
-      <c r="B27" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="C27" s="11">
         <v>1</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H27" s="20"/>
+      <c r="E27" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" ht="14.25" spans="2:8">
-      <c r="B28" s="30" t="s">
-        <v>89</v>
+      <c r="B28" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="C28" s="11">
         <v>1</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B29" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="20"/>
-    </row>
-    <row r="29" ht="14.25" spans="2:8">
-      <c r="B29" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="C29" s="11">
         <v>1</v>
       </c>
-      <c r="D29" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="30" t="s">
+      <c r="D29" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="30" t="s">
-        <v>87</v>
+      <c r="E29" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H29" s="20"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" ht="14.25" spans="2:8">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="29" t="s">
         <v>94</v>
       </c>
       <c r="C30" s="11">
         <v>1</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" ht="14.25" spans="2:8">
+      <c r="B31" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H30" s="20"/>
-    </row>
-    <row r="31" ht="14.25" spans="2:8">
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
-    </row>
-    <row r="33" ht="14.25" spans="2:7">
-      <c r="B33" s="25" t="s">
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" ht="14.25" spans="2:8">
+      <c r="B32" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-    </row>
-    <row r="34" customFormat="1" ht="14.25" spans="2:7">
-      <c r="B34" s="26" t="s">
+      <c r="C32" s="11">
+        <v>1</v>
+      </c>
+      <c r="D32" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-    </row>
-    <row r="35" customFormat="1" ht="14.25" spans="2:7">
-      <c r="B35" s="26" t="s">
+      <c r="E32" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-    </row>
-    <row r="36" ht="14.25" spans="2:7">
-      <c r="B36" s="26" t="s">
+      <c r="F32" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-    </row>
-    <row r="39" spans="7:7">
-      <c r="G39"/>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="28" t="s">
+      <c r="G32" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-    </row>
-    <row r="66" spans="2:7">
-      <c r="B66" s="28" t="s">
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" ht="14.25" spans="2:8">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="35" ht="14.25" spans="2:7">
+      <c r="B35" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-    </row>
-    <row r="75" spans="7:7">
-      <c r="G75"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" customFormat="1" ht="14.25" spans="2:7">
+      <c r="B36" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+    </row>
+    <row r="37" customFormat="1" ht="14.25" spans="2:7">
+      <c r="B37" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+    </row>
+    <row r="38" ht="14.25" spans="2:7">
+      <c r="B38" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+    </row>
+    <row r="41" spans="7:7">
+      <c r="G41"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+    </row>
+    <row r="76" spans="7:7">
+      <c r="G76"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
     <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B67:G67"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H11:H16"/>
+    <mergeCell ref="H22:H23"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.298611111111111" footer="0.298611111111111"/>
@@ -3548,10 +3642,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H17"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3569,7 +3663,7 @@
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="2:8">
       <c r="B1" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3582,7 +3676,7 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -3624,48 +3718,48 @@
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:8">
-      <c r="B5" s="30" t="s">
-        <v>106</v>
+      <c r="B5" s="29" t="s">
+        <v>111</v>
       </c>
       <c r="C5" s="11">
         <v>3</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="30" t="s">
+      <c r="D5" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="15"/>
     </row>
     <row r="6" ht="14.25" spans="2:8">
-      <c r="B6" s="30" t="s">
-        <v>108</v>
+      <c r="B6" s="29" t="s">
+        <v>113</v>
       </c>
       <c r="C6" s="11">
         <v>2</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="17"/>
     </row>
     <row r="7" customFormat="1" ht="14.25" spans="2:8">
-      <c r="B7" s="30" t="s">
-        <v>110</v>
+      <c r="B7" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="C7" s="11">
         <v>3</v>
@@ -3673,225 +3767,246 @@
       <c r="D7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="17"/>
     </row>
     <row r="8" ht="14.25" spans="2:8">
-      <c r="B8" s="30" t="s">
-        <v>111</v>
+      <c r="B8" s="29" t="s">
+        <v>116</v>
       </c>
       <c r="C8" s="11">
         <v>3</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H8" s="17"/>
     </row>
     <row r="9" ht="14.25" spans="2:8">
-      <c r="B9" s="30" t="s">
-        <v>113</v>
+      <c r="B9" s="29" t="s">
+        <v>118</v>
       </c>
       <c r="C9" s="11">
         <v>1</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H9" s="17"/>
     </row>
     <row r="10" ht="14.25" spans="2:8">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="11">
         <v>2</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" ht="68" customHeight="1" spans="2:8">
-      <c r="B11" s="11" t="s">
-        <v>114</v>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" customFormat="1" ht="14.25" spans="2:8">
+      <c r="B11" s="29" t="s">
+        <v>119</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>115</v>
+      <c r="D11" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" customFormat="1" ht="68" customHeight="1" spans="2:8">
+        <v>65</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" ht="68" customHeight="1" spans="2:8">
       <c r="B12" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C12" s="11">
         <v>1</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>119</v>
+      <c r="D12" s="29" t="s">
+        <v>121</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>123</v>
       </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" ht="115" customHeight="1" spans="2:8">
-      <c r="B13" s="30" t="s">
-        <v>122</v>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" customFormat="1" ht="68" customHeight="1" spans="2:8">
+      <c r="B13" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="C13" s="11">
         <v>1</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>123</v>
+      <c r="D13" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" ht="118" customHeight="1" spans="2:8">
-      <c r="B14" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="21">
+        <v>126</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" ht="115" customHeight="1" spans="2:8">
+      <c r="B14" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="11">
         <v>1</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" ht="118" customHeight="1" spans="2:8">
+      <c r="B15" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1</v>
+      </c>
+      <c r="D15" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" customFormat="1" ht="60" customHeight="1" spans="2:8">
-      <c r="B15" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="22">
+      <c r="F15" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" customFormat="1" ht="60" customHeight="1" spans="2:8">
+      <c r="B16" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="21">
         <v>1</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D16" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F16" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" customFormat="1" ht="14.25" spans="2:8">
-      <c r="B16" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="11">
-        <v>1</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" customFormat="1" ht="28.5" spans="2:8">
+      <c r="G16" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" customFormat="1" ht="14.25" spans="2:8">
       <c r="B17" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C17" s="11">
         <v>1</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>87</v>
+      <c r="D17" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" s="20"/>
+        <v>140</v>
+      </c>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" customFormat="1" ht="28.5" spans="2:8">
+      <c r="B18" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="H5:H10"/>
+    <mergeCell ref="H5:H11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait"/>
@@ -3924,7 +4039,7 @@
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="2:6">
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3933,9 +4048,9 @@
     </row>
     <row r="2" ht="17.25" spans="2:5">
       <c r="B2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="5"/>
@@ -3943,10 +4058,10 @@
     </row>
     <row r="3" customFormat="1" ht="33" customHeight="1" spans="2:6">
       <c r="B3" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -3977,31 +4092,31 @@
     </row>
     <row r="6" ht="186" customHeight="1" spans="2:6">
       <c r="B6" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C6" s="11">
         <v>1</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>141</v>
+      <c r="D6" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F6" s="12"/>
     </row>
     <row r="7" ht="129" customHeight="1" spans="2:6">
       <c r="B7" s="11" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C7" s="11">
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F7" s="13"/>
     </row>
